--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srija\eclipse-workspace\MiniProjectNew01\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA68C8-F2BE-46C0-BE19-FC43F6314391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F70F5B-F75C-4119-B07D-F605F15EC729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC09F3F0-6780-40D9-920C-7C4AD757C931}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{CC09F3F0-6780-40D9-920C-7C4AD757C931}"/>
   </bookViews>
   <sheets>
     <sheet name="Signup" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>ValidDetails</t>
   </si>
   <si>
-    <t>testguviuser05</t>
-  </si>
-  <si>
     <t>guvi123</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>ManiishGuvi</t>
+  </si>
+  <si>
+    <t>testguviuser06</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF92C81C-35B1-4FD4-B210-84E26E0444D8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -438,10 +438,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -456,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31084165-86FF-4B72-ABF3-FD3D461E4B43}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -480,10 +480,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
